--- a/biology/Botanique/Wu_Zhengyi/Wu_Zhengyi.xlsx
+++ b/biology/Botanique/Wu_Zhengyi/Wu_Zhengyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wu Zhengyi (chinois : 吴征镒, également translittéré en Wu Cheng-yih[1], Wu Zheng Yi[2] et Cheng Yih Wu[2]), né le 13 juin 1916 à Jiujiang (Jiangxi) et mort le 20 juin 2013 à Kunming (Yunnan)[3], est un botaniste chinois, spécialiste de géographie botanique et de botanique médicale. Il est membre de l'Académie chinoise des sciences.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wu Zhengyi (chinois : 吴征镒, également translittéré en Wu Cheng-yih, Wu Zheng Yi et Cheng Yih Wu), né le 13 juin 1916 à Jiujiang (Jiangxi) et mort le 20 juin 2013 à Kunming (Yunnan), est un botaniste chinois, spécialiste de géographie botanique et de botanique médicale. Il est membre de l'Académie chinoise des sciences.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Wu naît le 13 juin 1916 à Jiujiang, dans la province du Jiangxi et grandit à Yangzhou, dans la province du Jiangsu. Il ressort diplômé de l'université Tsinghua en 1937. De 1940 à 1942, il poursuit ses études à l'université de Pékin sous la supervision de Zhang Jingyue, alors président de la faculté de biologie.
 Wu devient chercheur à l'Institut botanique de l'Académie chinoise des sciences. En 1958, il est nommé directeur de l'Institut botanique de l'Académie à Kunming.
